--- a/DataTable/102示例配置.xlsx
+++ b/DataTable/102示例配置.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardGame\Project\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0B54BB-0BAA-4FE4-A703-1007AFD250A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDDD1EF-E494-4A49-9DFF-B804F8EF1088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,23 +107,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0,1,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,3,2,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1.5,3,2.3,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Te"st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("Te\"stA","Te)stB","Te,stC","Te\\stD")</t>
+    <t>(Te\"st)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5,3,2.3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Te\"stA","Te)stB","Te,stC","Te\\stD"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,16 +550,16 @@
         <v>123.456</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>

--- a/DataTable/102示例配置.xlsx
+++ b/DataTable/102示例配置.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDDD1EF-E494-4A49-9DFF-B804F8EF1088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C93802-0180-4EAB-AAF5-C27DBAC46F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +125,10 @@
   </si>
   <si>
     <t>"Te\"stA","Te)stB","Te,stC","Te\\stD"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103010000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,8 +461,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,4 +579,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C328C-9712-493C-9AA2-16B1221B1808}">
+  <dimension ref="A3:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1">
+        <v>123.456</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>